--- a/experiments/dbscan-ajk/instructor-xl/0.3/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.3/prediction.xlsx
@@ -468,27 +468,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,17 +2078,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,17 +4118,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4318,17 +4318,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4558,17 +4558,17 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4898,17 +4898,17 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -5208,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5218,7 +5218,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5238,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5248,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5258,7 +5258,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5268,7 +5268,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5278,7 +5278,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5288,7 +5288,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5298,7 +5298,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5308,7 +5308,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -5318,7 +5318,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5348,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5358,7 +5358,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5368,7 +5368,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -5378,7 +5378,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -5388,7 +5388,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5398,7 +5398,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5408,7 +5408,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -5418,7 +5418,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5428,7 +5428,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -5438,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5448,7 +5448,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -5458,7 +5458,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5468,7 +5468,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5478,7 +5478,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -5488,7 +5488,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -5498,7 +5498,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -5508,7 +5508,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -5518,27 +5518,27 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -5548,7 +5548,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -5558,7 +5558,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -5568,7 +5568,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -5578,7 +5578,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -5588,7 +5588,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5598,7 +5598,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -5608,7 +5608,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -5618,7 +5618,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -5628,7 +5628,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -5638,7 +5638,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -5648,7 +5648,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -5658,7 +5658,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -5668,7 +5668,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -5678,7 +5678,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -5688,7 +5688,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -5698,7 +5698,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -5708,7 +5708,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -5718,7 +5718,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -5728,7 +5728,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -5738,7 +5738,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -5748,7 +5748,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -5758,7 +5758,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -5768,7 +5768,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -5778,7 +5778,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -5788,7 +5788,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -5798,7 +5798,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -5808,7 +5808,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -5818,7 +5818,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -5828,7 +5828,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -5838,7 +5838,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -5848,7 +5848,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -5858,7 +5858,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -5868,7 +5868,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -5878,7 +5878,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -5888,7 +5888,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -5898,7 +5898,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -5908,7 +5908,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -5918,7 +5918,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -5928,7 +5928,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -5938,7 +5938,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -5948,7 +5948,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -5958,7 +5958,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -5968,7 +5968,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -5978,7 +5978,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -5988,7 +5988,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -5998,7 +5998,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -6008,7 +6008,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -6018,7 +6018,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6028,7 +6028,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -6038,7 +6038,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -6048,7 +6048,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -6058,7 +6058,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -6068,7 +6068,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -6078,7 +6078,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -6088,7 +6088,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -6098,7 +6098,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -6108,7 +6108,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -6118,7 +6118,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -6128,7 +6128,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -6138,7 +6138,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -6148,7 +6148,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -6158,7 +6158,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -6168,7 +6168,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -6178,7 +6178,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft. Please step farther away.</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -6188,7 +6188,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Your palm is too far away from the aircraft. Please step closer.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -6198,91 +6198,91 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Your palm is too close to the aircraft. Please step farther away.</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Your palm is too far away from the aircraft. Please step closer.</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
